--- a/Mochila_capacidad_maxima_2.45kg.xlsx
+++ b/Mochila_capacidad_maxima_2.45kg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unimagdalena\Desktop\IA_2024_I\bioinspirados\Trabajo_unidad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidadmag-my.sharepoint.com/personal/adruidiaz_unimagdalena_edu_co/Documents/Documentos/JesiD/IA/Knapsack_problem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59F9C92-ECE5-4A5E-BEBB-2CC00C34A4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{B59F9C92-ECE5-4A5E-BEBB-2CC00C34A4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{098E211C-71EE-4B66-B147-24CEFDF8BB9E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CF93944-BA6A-46E5-8487-72D814EA4833}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8CF93944-BA6A-46E5-8487-72D814EA4833}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -422,15 +422,15 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -458,7 +458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -472,7 +472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -486,7 +486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -500,7 +500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -514,7 +514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -528,7 +528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -542,7 +542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -584,7 +584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -598,7 +598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -612,7 +612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -640,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
